--- a/PythonProjects/OmronOfficeSystem_PySide6/Taxi.xlsx
+++ b/PythonProjects/OmronOfficeSystem_PySide6/Taxi.xlsx
@@ -79,12 +79,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +100,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,8 +143,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -143,6 +174,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -151,6 +220,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -160,83 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +266,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -271,6 +302,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -283,31 +356,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,25 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,97 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,8 +478,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +503,47 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -510,214 +564,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1064,13 +1072,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C2" sqref="C2:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1080,138 +1088,175 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>381</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>382</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>381</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>393</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>374</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>398</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>388</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>398</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>384</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>383</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>362</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>365</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>399</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>353</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
+      <c r="B18">
+        <v>397</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PythonProjects/OmronOfficeSystem_PySide6/Taxi.xlsx
+++ b/PythonProjects/OmronOfficeSystem_PySide6/Taxi.xlsx
@@ -79,12 +79,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,59 +100,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +151,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -174,32 +182,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,51 +247,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,49 +259,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,121 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,8 +471,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,47 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -566,166 +542,182 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1072,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1088,175 +1080,141 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>370</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>381</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>382</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>381</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>393</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>374</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>398</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>388</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>398</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>384</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>383</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>362</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>370</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>365</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>399</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>353</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>397</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
